--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>Student Name:   Shiwei Du</t>
+  </si>
+  <si>
+    <t>microsoft effect framework</t>
+  </si>
+  <si>
+    <t>DDSTextureLoader</t>
+  </si>
+  <si>
+    <t>WICTextureLoader</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Only Support X86</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -941,7 +959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1056,15 +1076,19 @@
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G30" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
@@ -1076,11 +1100,11 @@
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1096,11 +1120,15 @@
       <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>27</v>
@@ -1137,7 +1165,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84)  &gt; 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) - 18,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) - 18,0)</f>
@@ -1205,11 +1233,11 @@
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 18, IF(K4+H4 &gt; 18, 18- H4, K4),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
@@ -1270,7 +1298,7 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 18 &gt; 0, K4+H4 - 18, 0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
@@ -1410,11 +1438,15 @@
       <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1588,11 +1620,15 @@
       <c r="D25" s="5">
         <v>2</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1613,11 +1649,15 @@
       <c r="D26" s="5">
         <v>2</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1638,7 +1678,9 @@
       <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
@@ -2375,11 +2417,15 @@
       <c r="D60" s="5">
         <v>1</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
+      <c r="E60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G60" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -2400,11 +2446,15 @@
       <c r="D61" s="5">
         <v>1</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
+      <c r="E61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G61" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -2425,11 +2475,15 @@
       <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
+      <c r="E62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G62" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -2859,7 +2913,9 @@
       <c r="B83" s="6">
         <v>2</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="5"/>
@@ -2877,7 +2933,9 @@
       <c r="B84" s="6">
         <v>1</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="5"/>
@@ -2925,19 +2983,27 @@
       <c r="A88" s="12"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
+      <c r="A89" s="12" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
@@ -3012,7 +3078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -372,7 +372,7 @@
     <t>Only Support X86</t>
   </si>
   <si>
-    <t>I</t>
+    <t>II</t>
   </si>
 </sst>
 </file>
@@ -960,7 +960,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,15 +1084,15 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G30" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84))</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84))</f>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1123,12 +1123,10 @@
       <c r="E5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>27</v>
@@ -1165,7 +1163,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84)  &gt; 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) - 18,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) - 18,0)</f>
@@ -1233,11 +1231,11 @@
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 18, IF(K4+H4 &gt; 18, 18- H4, K4),0)</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
@@ -1298,7 +1296,7 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 18 &gt; 0, K4+H4 - 18, 0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
@@ -1446,7 +1444,7 @@
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1517,11 +1515,15 @@
       <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1628,7 +1630,7 @@
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1657,7 +1659,7 @@
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Student Name:   Shiwei Du</t>
   </si>
   <si>
-    <t>microsoft effect framework</t>
-  </si>
-  <si>
     <t>DDSTextureLoader</t>
   </si>
   <si>
@@ -369,10 +366,19 @@
     <t>X</t>
   </si>
   <si>
-    <t>Only Support X86</t>
-  </si>
-  <si>
     <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>camera movement W,A,S,D</t>
+  </si>
+  <si>
+    <t>up/down   space, shift</t>
+  </si>
+  <si>
+    <t>zoom   mousewheel</t>
   </si>
 </sst>
 </file>
@@ -959,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,10 +1083,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G30" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
@@ -1092,11 +1098,11 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
@@ -1104,7 +1110,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1121,12 +1127,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>27</v>
@@ -1235,11 +1243,11 @@
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1437,10 +1445,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
@@ -1516,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
@@ -1623,10 +1631,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
@@ -1652,14 +1660,14 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1681,12 +1689,14 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1707,11 +1717,15 @@
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1732,11 +1746,15 @@
       <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G29" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1757,11 +1775,15 @@
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1782,11 +1804,15 @@
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G31" s="16">
         <f t="shared" ref="G31:G65" si="1" xml:space="preserve"> IF(EXACT(F31,"X"),IF(EXACT(E31,"I"),$B31,IF(EXACT(E31,"II"),$C31,IF(EXACT(E31,"III"),$D31,0))),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2010,11 +2036,15 @@
       <c r="D41" s="5">
         <v>3</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
+      <c r="E41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G41" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2420,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G60" s="16">
         <f t="shared" si="1"/>
@@ -2449,10 +2479,10 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G61" s="16">
         <f t="shared" si="1"/>
@@ -2478,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G62" s="16">
         <f t="shared" si="1"/>
@@ -2916,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2936,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2985,18 +3015,16 @@
       <c r="A88" s="12"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>92</v>
-      </c>
+      <c r="A89" s="12"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3004,14 +3032,18 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
+      <c r="A95" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
@@ -3080,7 +3112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -366,12 +366,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
     <t>camera movement W,A,S,D</t>
   </si>
   <si>
@@ -379,6 +373,9 @@
   </si>
   <si>
     <t>zoom   mousewheel</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -965,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,34 +1080,34 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G30" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84))</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84))</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,14 +1124,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>27</v>
@@ -1171,7 +1168,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84)  &gt; 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) - 18,0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) - 18,0)</f>
@@ -1200,7 +1197,9 @@
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
@@ -1239,11 +1238,11 @@
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 18, IF(K4+H4 &gt; 18, 18- H4, K4),0)</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I8" s="17">
         <f>I4+IF(I4 &lt; 18, IF(H10+I4 &gt; 18, 18- I4, H10),0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
@@ -1304,11 +1303,11 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 18 &gt; 0, K4+H4 - 18, 0)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
@@ -1445,14 +1444,14 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1524,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>94</v>
@@ -1631,14 +1630,14 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1660,14 +1659,14 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1689,14 +1688,14 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1718,14 +1717,14 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1747,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>94</v>
@@ -1776,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>94</v>
@@ -1805,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>94</v>
@@ -2036,15 +2035,11 @@
       <c r="D41" s="5">
         <v>3</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2321,7 +2316,9 @@
       <c r="D54" s="5">
         <v>2</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="16">
         <f t="shared" si="1"/>
@@ -2450,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>94</v>
@@ -2479,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>94</v>
@@ -2508,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>94</v>
@@ -2611,11 +2608,15 @@
       <c r="D66" s="5">
         <v>4</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
+      <c r="E66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G66" s="16">
         <f t="shared" ref="G66:G81" si="3" xml:space="preserve"> IF(EXACT(F66,"X"),IF(EXACT(E66,"I"),$B66,IF(EXACT(E66,"II"),$C66,IF(EXACT(E66,"III"),$D66,0))),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -2948,8 +2949,12 @@
       <c r="C83" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -2968,8 +2973,12 @@
       <c r="C84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -3032,17 +3041,17 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -3112,7 +3121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,19 +1095,19 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1160,15 +1160,19 @@
       <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84)  &gt; 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) - 18,0)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) - 18,0)</f>
@@ -1200,10 +1204,12 @@
       <c r="E7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>23</v>
@@ -1246,7 +1252,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1303,11 +1309,11 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 18 &gt; 0, K4+H4 - 18, 0)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
@@ -1907,11 +1913,15 @@
       <c r="D35" s="5">
         <v>2</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2949,12 +2959,8 @@
       <c r="C83" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -2973,12 +2979,8 @@
       <c r="C84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,11 +1103,11 @@
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84)  &gt; 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) - 18,0)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) - 18,0)</f>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="J8" s="17">
         <f>J4+IF(J4 &lt; 18, IF(I10+J4 &gt; 18, 18- J4, I10),0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1309,11 +1309,11 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 18 &gt; 0, K4+H4 - 18, 0)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
@@ -1478,11 +1478,15 @@
       <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -3123,7 +3127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
   </si>
 </sst>
 </file>
@@ -962,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1098,7 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84))</f>
@@ -1103,11 +1106,11 @@
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1172,7 +1175,7 @@
       </c>
       <c r="H6" s="17">
         <f>IF(SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84)  &gt; 18, SUMIF(E4:E81,"=I",G4:G81) + SUMIF(C83:C84, "X",B83:B84) - 18,0)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I6" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) - 18,0)</f>
@@ -1185,7 +1188,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="15">
         <f>IF(L4 &gt; 54, SUM(-54,L4),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1309,15 +1312,15 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 18 &gt; 0, K4+H4 - 18, 0)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1507,11 +1510,15 @@
       <c r="D19" s="5">
         <v>4</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2177,11 +2184,15 @@
       <c r="D47" s="5">
         <v>4</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
+      <c r="E47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G47" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2333,10 +2344,12 @@
       <c r="E54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G54" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -2963,7 +2976,9 @@
       <c r="C83" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2983,7 +2998,9 @@
       <c r="C84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -3127,7 +3144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84))</f>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="15">
         <f>IF(L4 &gt; 54, SUM(-54,L4),0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1316,11 +1316,11 @@
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2238,11 +2238,15 @@
       <c r="D49" s="5">
         <v>4</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
+      <c r="E49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G49" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -3144,7 +3148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Dev IV Project Rubric.xlsx
+++ b/Dev IV Project Rubric.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Realtime scene reflections based on dynamic cube map rendertargets</t>
   </si>
 </sst>
 </file>
@@ -965,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,19 +1104,19 @@
       </c>
       <c r="I4" s="17">
         <f>IF(SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=II",G4:G81) + SUMIF(D83:D84, "X",B83:B84))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" s="17">
         <f>IF(SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) &gt; 18, 18, SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K4" s="17">
         <f>SUM(H6,I6,J6)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="17">
         <f>SUM(G4:G81) + SUMIF(C83:C84, "X",B83:B84) + SUMIF(D83:D84, "X",B83:B84) + SUMIF(E83:E84, "X",B83:B84)</f>
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1183,12 +1189,12 @@
       </c>
       <c r="J6" s="17">
         <f>IF(SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) &gt; 18, SUMIF(E4:E81,"=III",G4:G81) + SUMIF(E83:E84, "X",B83:B84) - 18,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="15">
         <f>IF(L4 &gt; 54, SUM(-54,L4),0)</f>
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1239,11 +1245,15 @@
       <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <f>H4+IF(H4 &lt; 18, IF(K4+H4 &gt; 18, 18- H4, K4),0)</f>
@@ -1312,15 +1322,15 @@
       </c>
       <c r="H10" s="19">
         <f>IF(K4+H4 - 18 &gt; 0, K4+H4 - 18, 0)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="19">
         <f>IF(H10+I4 - 18 &gt; 0, H10+I4 - 18, 0)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J10" s="19">
         <f>IF(I10+J4 - 18 &gt; 0, I10+J4 - 18, 0)</f>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2031,11 +2041,15 @@
       <c r="D40" s="5">
         <v>2</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
+      <c r="E40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G40" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2255,15 +2269,27 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
+      <c r="A50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G50" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -2795,11 +2821,15 @@
       <c r="D74" s="5">
         <v>3</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
+      <c r="E74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G74" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -2900,11 +2930,15 @@
       <c r="D79" s="5">
         <v>6</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="3"/>
+      <c r="E79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G79" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -2983,7 +3017,9 @@
       <c r="D83" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -3005,7 +3041,9 @@
       <c r="D84" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -3148,7 +3186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
